--- a/FCIC.xlsx
+++ b/FCIC.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -1489,9 +1489,15 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1677,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>142000</v>
+        <v>142</v>
       </c>
       <c r="F26" s="3">
         <v>76</v>
@@ -2439,7 +2445,7 @@
         <v>70000</v>
       </c>
       <c r="E39" s="3">
-        <v>25000</v>
+        <v>25</v>
       </c>
       <c r="F39" s="3">
         <v>137</v>
@@ -2466,10 +2472,10 @@
         <v>6000</v>
       </c>
       <c r="D40" s="3">
-        <v>71000</v>
+        <v>70001</v>
       </c>
       <c r="E40" s="3">
-        <v>209000</v>
+        <v>209</v>
       </c>
       <c r="F40" s="3">
         <v>445</v>
